--- a/medicine/Psychotrope/Systembolaget/Systembolaget.xlsx
+++ b/medicine/Psychotrope/Systembolaget/Systembolaget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Systembolaget (familièrement appelé systemet ou bolaget et dont la traduction littérale serait « l'entreprise du système/réseau », sous-entendu de vente d'alcool) est une chaîne de magasins de vins et de spiritueux appartenant à l'État suédois et à but non lucratif qui détient le monopole des ventes au détail de boissons alcoolisées de plus de 3,5 degrés en Suède. Elle s'intègre dans la politique suédoise de stricte régulation de la vente d'alcool par l'État ainsi que de taxation en fonction du degré d'alcool du produit (et non en fonction du prix) pour freiner la consommation. La vente est interdite aux moins de 20 ans.
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monopole a été instauré pour limiter les problèmes liés à l’alcool. À partir de 1850, l’État commence à intervenir dans la régulation de la vente d’alcool dans certaines régions et un référendum est organisé en 1922 pour la prohibition, rejetée à une faible majorité (51 % se prononcent contre). En 1955, le systembolaget est mis en place[1].
-En 1995, la Suède intègre l'Europe. Elle maintient son système de monopole sur les ventes d'alcool, mais promet un marché égalitaire pour les fournisseurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monopole a été instauré pour limiter les problèmes liés à l’alcool. À partir de 1850, l’État commence à intervenir dans la régulation de la vente d’alcool dans certaines régions et un référendum est organisé en 1922 pour la prohibition, rejetée à une faible majorité (51 % se prononcent contre). En 1955, le systembolaget est mis en place.
+En 1995, la Suède intègre l'Europe. Elle maintient son système de monopole sur les ventes d'alcool, mais promet un marché égalitaire pour les fournisseurs.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Règles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs lois et règles régissent le fonctionnement des points de vente du Systembolaget :
 Tous les produits, y compris les canettes de bière et les bouteilles, sont vendus au détail (sauf quelques exceptions).
@@ -579,11 +595,13 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à ce qui est souvent dit, le Systembolaget n'est pas le plus grand acheteur de vin et de spiritueux au monde. Il est devancé de loin, entre autres, par Tesco en Grande-Bretagne.
 Les taxes élevées appliquées aux boissons alcoolisées (et d'autant plus élevées que le degré d'alcool est important) ont cependant amené beaucoup de Suédois à emprunter la « route de la soif », vers l'Allemagne via le Danemark pour les habitants du sud du pays et vers l'Estonie pour ceux de l'est.
-Toutefois, la majorité des Suédois semble favorable à la poursuite de ce système[1]. Les horaires d'ouverture restrictives peuvent mener les consommateurs à surstocker chez eux, ce qui facilite la consommation avec abus. La politique de non-promotion des produits provoque une linéarité dans l'offre, ce qui mène les plus jeunes générations à se tourner vers les bars pour découvrir de nouveaux produits, en particulier en ce qui concerne les vins[3].
+Toutefois, la majorité des Suédois semble favorable à la poursuite de ce système. Les horaires d'ouverture restrictives peuvent mener les consommateurs à surstocker chez eux, ce qui facilite la consommation avec abus. La politique de non-promotion des produits provoque une linéarité dans l'offre, ce qui mène les plus jeunes générations à se tourner vers les bars pour découvrir de nouveaux produits, en particulier en ce qui concerne les vins.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Corruption</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, une affaire de corruption massive au sein des enseignes Systembolaget éclate. Dès 2005, dans une série de procès, 77 anciens chefs de boutique Systembolage comparaissent devant les tribunaux pour avoir accepté cadeaux, voyages, prêts personnels, ... de la part de fournisseurs d'alcool[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, une affaire de corruption massive au sein des enseignes Systembolaget éclate. Dès 2005, dans une série de procès, 77 anciens chefs de boutique Systembolage comparaissent devant les tribunaux pour avoir accepté cadeaux, voyages, prêts personnels, ... de la part de fournisseurs d'alcool.
 </t>
         </is>
       </c>
